--- a/data/trans_orig/iP30B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A244FA49-A3EA-4309-922C-E159440E556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{034D2240-6BD9-4ABD-9222-3A174F9B85BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{51D853E1-B1C4-4C2C-BAC9-CA40CD4045C7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{877A0AB7-5284-44F9-9FC7-BB87A71C2830}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,105 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>2,01%</t>
   </si>
   <si>
@@ -98,9 +191,6 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>97,99%</t>
   </si>
   <si>
@@ -128,64 +218,43 @@
     <t>99,01%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -237,75 +306,6 @@
   </si>
   <si>
     <t>96,67%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
   </si>
   <si>
     <t>2,55%</t>
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B427B1-3329-4E53-AAC1-ECC6E87CECDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED06F01-F4DD-4DB4-8400-58EDF3F017AD}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -863,10 +863,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4881</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -878,85 +878,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2923</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7804</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11397</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15999</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>317</v>
-      </c>
-      <c r="D5" s="7">
-        <v>238032</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>43</v>
+      </c>
+      <c r="N5" s="7">
+        <v>27395</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>264</v>
-      </c>
-      <c r="I5" s="7">
-        <v>184994</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>581</v>
-      </c>
-      <c r="N5" s="7">
-        <v>423026</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -965,54 +965,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1024,13 +1024,13 @@
         <v>4799</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1039,13 +1039,13 @@
         <v>2287</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -1054,19 +1054,19 @@
         <v>7086</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>144</v>
@@ -1075,13 +1075,13 @@
         <v>107649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -1090,13 +1090,13 @@
         <v>99348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>303</v>
@@ -1105,13 +1105,13 @@
         <v>206997</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1126,13 +1126,13 @@
         <v>112448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -1141,13 +1141,13 @@
         <v>101635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -1156,117 +1156,117 @@
         <v>214083</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>4536</v>
+        <v>4881</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>1680</v>
+        <v>2923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>6216</v>
+        <v>7804</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="D11" s="7">
-        <v>166920</v>
+        <v>238032</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7">
+        <v>264</v>
+      </c>
+      <c r="I11" s="7">
+        <v>184994</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="7">
+        <v>581</v>
+      </c>
+      <c r="N11" s="7">
+        <v>423026</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>232</v>
-      </c>
-      <c r="I11" s="7">
-        <v>166810</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="7">
-        <v>456</v>
-      </c>
-      <c r="N11" s="7">
-        <v>333731</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1275,72 +1275,72 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>3867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1349,79 +1349,79 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>3867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>216</v>
+      </c>
+      <c r="D14" s="7">
+        <v>167252</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="7">
+        <v>223</v>
+      </c>
+      <c r="I14" s="7">
+        <v>166568</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7">
-        <v>11397</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="7">
-        <v>26</v>
-      </c>
-      <c r="I14" s="7">
-        <v>15999</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>439</v>
       </c>
       <c r="N14" s="7">
-        <v>27395</v>
+        <v>333820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1430,153 +1430,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>3867</v>
+        <v>4536</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1680</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>11</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6216</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="7">
-        <v>4</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3867</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D17" s="7">
-        <v>167252</v>
+        <v>166920</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>232</v>
+      </c>
+      <c r="I17" s="7">
+        <v>166810</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="7">
-        <v>223</v>
-      </c>
-      <c r="I17" s="7">
-        <v>166568</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="N17" s="7">
-        <v>333820</v>
+        <v>333731</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,49 +1585,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,7 +1662,7 @@
         <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>94</v>
@@ -1686,7 +1686,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>918</v>
@@ -1716,7 +1716,7 @@
         <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M20" s="7">
         <v>1822</v>
@@ -1746,13 +1746,13 @@
         <v>709334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>915</v>
@@ -1761,13 +1761,13 @@
         <v>640609</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1855</v>
@@ -1776,13 +1776,13 @@
         <v>1349942</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{034D2240-6BD9-4ABD-9222-3A174F9B85BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{530E6EB8-BBBB-40DE-AF2E-02ADF15003B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{877A0AB7-5284-44F9-9FC7-BB87A71C2830}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{923F92E2-DA95-4072-A804-913FC6A28541}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
   <si>
     <t>Menores según si se utiliza aceite de oliva en casa en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -68,6 +68,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,274 +104,259 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
     <t>4,27%</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
     <t>1,15%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>5,58%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
     <t>1,9%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -460,39 +463,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -544,7 +547,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -655,13 +658,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -670,6 +666,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -734,19 +737,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED06F01-F4DD-4DB4-8400-58EDF3F017AD}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8575C3B0-18C9-4DA4-8424-3B8C467A51B1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -863,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>11397</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -878,34 +901,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>15999</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>27395</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -914,10 +937,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>11397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -929,34 +952,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>15999</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>27395</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -971,13 +994,13 @@
         <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -986,13 +1009,13 @@
         <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -1001,13 +1024,13 @@
         <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1018,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="D7" s="7">
-        <v>4799</v>
+        <v>107649</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1033,10 +1056,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="I7" s="7">
-        <v>2287</v>
+        <v>99348</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1048,10 +1071,10 @@
         <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>303</v>
       </c>
       <c r="N7" s="7">
-        <v>7086</v>
+        <v>206997</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
@@ -1069,10 +1092,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>107649</v>
+        <v>4799</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1084,10 +1107,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>99348</v>
+        <v>2287</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1099,10 +1122,10 @@
         <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>303</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>206997</v>
+        <v>7086</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1126,13 +1149,13 @@
         <v>112448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -1141,13 +1164,13 @@
         <v>101635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -1156,13 +1179,13 @@
         <v>214083</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1173,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="D10" s="7">
-        <v>4881</v>
+        <v>238032</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1188,10 +1211,10 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="I10" s="7">
-        <v>2923</v>
+        <v>184994</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1203,10 +1226,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>581</v>
       </c>
       <c r="N10" s="7">
-        <v>7804</v>
+        <v>423026</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>48</v>
@@ -1224,10 +1247,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>317</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>238032</v>
+        <v>4881</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>51</v>
@@ -1239,10 +1262,10 @@
         <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>184994</v>
+        <v>2923</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>54</v>
@@ -1254,10 +1277,10 @@
         <v>56</v>
       </c>
       <c r="M11" s="7">
-        <v>581</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>423026</v>
+        <v>7804</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>57</v>
@@ -1281,13 +1304,13 @@
         <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>269</v>
@@ -1296,13 +1319,13 @@
         <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>593</v>
@@ -1311,13 +1334,13 @@
         <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1328,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="D13" s="7">
-        <v>3867</v>
+        <v>167252</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
@@ -1343,34 +1366,34 @@
         <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>166568</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>439</v>
       </c>
       <c r="N13" s="7">
-        <v>3867</v>
+        <v>333820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,49 +1402,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>167252</v>
+        <v>3867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>166568</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
-        <v>439</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>333820</v>
+        <v>3867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1436,13 +1459,13 @@
         <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>223</v>
@@ -1451,13 +1474,13 @@
         <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>443</v>
@@ -1466,66 +1489,66 @@
         <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="D16" s="7">
-        <v>4536</v>
+        <v>166920</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="I16" s="7">
-        <v>1680</v>
+        <v>166810</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>456</v>
       </c>
       <c r="N16" s="7">
-        <v>6216</v>
+        <v>333731</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,49 +1557,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>166920</v>
+        <v>4536</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>232</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>166810</v>
+        <v>1680</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>11</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6216</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="7">
-        <v>456</v>
-      </c>
-      <c r="N17" s="7">
-        <v>333731</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,13 +1614,13 @@
         <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>235</v>
@@ -1606,13 +1629,13 @@
         <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>467</v>
@@ -1621,13 +1644,13 @@
         <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,40 +1661,40 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>22</v>
+        <v>918</v>
       </c>
       <c r="D19" s="7">
-        <v>18083</v>
+        <v>691250</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>904</v>
+      </c>
+      <c r="I19" s="7">
+        <v>633719</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="7">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6890</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>94</v>
       </c>
       <c r="M19" s="7">
-        <v>33</v>
+        <v>1822</v>
       </c>
       <c r="N19" s="7">
-        <v>24972</v>
+        <v>1324970</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>95</v>
@@ -1689,10 +1712,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>918</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7">
-        <v>691251</v>
+        <v>18083</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>98</v>
@@ -1701,28 +1724,28 @@
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="7">
+        <v>11</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6890</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="7">
-        <v>904</v>
-      </c>
-      <c r="I20" s="7">
-        <v>633719</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="M20" s="7">
-        <v>1822</v>
+        <v>33</v>
       </c>
       <c r="N20" s="7">
-        <v>1324970</v>
+        <v>24972</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>103</v>
@@ -1743,16 +1766,16 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>915</v>
@@ -1761,13 +1784,13 @@
         <v>640609</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1855</v>
@@ -1776,13 +1799,18 @@
         <v>1349942</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
